--- a/文件區/APP功能進度表.xlsx
+++ b/文件區/APP功能進度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="15000" windowHeight="7905"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="15000" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>首頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刪除預約</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>預約簽到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,27 +78,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get_Reservation.php</t>
-  </si>
-  <si>
     <t>reserve_sign_in.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>reserve_add.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API開發進度(Kai)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI開發進度(Paula)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢單ㄧ預約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_reserve_list.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_reserve_one.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>reserve_update.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reserve_add.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API開發進度(Kai)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI開發進度(Paula)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消預約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_cancel.php</t>
   </si>
 </sst>
 </file>
@@ -456,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -475,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -504,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -513,22 +529,22 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -537,93 +553,114 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A2:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文件區/APP功能進度表.xlsx
+++ b/文件區/APP功能進度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>首頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -607,60 +607,24 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文件區/APP功能進度表.xlsx
+++ b/文件區/APP功能進度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>首頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,38 @@
   </si>
   <si>
     <t>reserve_cancel.php</t>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增員工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增產品分類/產品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_add.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/修改會員資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢會員資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_member_info.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -472,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -589,45 +621,118 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A14"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
